--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS10.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS10.xlsx
@@ -19,28 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="139">
-  <si>
-    <t>Signal_Value_1</t>
-  </si>
-  <si>
-    <t>Signal_Value_2</t>
-  </si>
-  <si>
-    <t>Signal_Value_3</t>
-  </si>
-  <si>
-    <t>Signal_Value_4</t>
-  </si>
-  <si>
-    <t>Signal_Value_5</t>
-  </si>
-  <si>
-    <t>Signal_Value_6</t>
-  </si>
-  <si>
-    <t>Signal_Value_7</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="140">
   <si>
     <t>Signal_Value_8</t>
   </si>
@@ -357,6 +336,33 @@
     <t>Signal_Value_112</t>
   </si>
   <si>
+    <t>Signal_Value_113</t>
+  </si>
+  <si>
+    <t>Signal_Value_114</t>
+  </si>
+  <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -429,10 +435,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -793,15 +796,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DI6"/>
+  <dimension ref="A1:DK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:113">
+    <row r="1" spans="1:115">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1139,10 +1142,16 @@
       <c r="DI1" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="2" spans="1:113">
+    <row r="2" spans="1:115">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1151,100 +1160,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0697425518026638</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.002699565739465547</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.09906551078569178</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.02108102552956576</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.009103662011398511</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02380441116778126</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06784712323090729</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.05940303383104485</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.006846799849747273</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0005597691568264796</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.08066197892858824</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.06007299880415266</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.003537231489175287</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.01652619608985011</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.08996092522338214</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.05473288854433762</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0007446048400122773</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.06182560491514176</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.03043634069907687</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.03168154701954683</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.06244226749926051</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.002803327624699942</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.0005666256235593701</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.008879628589601868</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.01127537147549137</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.007519670880468877</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.06842755629252349</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.001871661270932615</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.04020118266964068</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.000474476691453347</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.005204461724011512</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1277,100 +1286,100 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.002004505793264738</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.01560186586553981</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.001363969811237003</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.03023932692114844</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.004830354094472072</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.02550952565650018</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.000565226630574227</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.001585198858187966</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>9.276187898716809E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.002750179247353173</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0602190453325281</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0595825040756271</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.003064906463851995</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.06427609212159914</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.04589155444249432</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.04824570679838654</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.05242498123446006</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.003335061370411476</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.04218308947170642</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.09092509265182469</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.07077422431079897</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.06969279705500984</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.05079834132746135</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.007442460225157932</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.01027696891110613</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.05108859887345896</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.07527144488130687</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.05324958323353374</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.02966640059983898</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0151984116388526</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.008992347891724786</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.002857472331595237</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
         <v>0</v>
@@ -1480,10 +1489,16 @@
       <c r="DI2">
         <v>0</v>
       </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:113">
+    <row r="3" spans="1:115">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1726,105 +1741,111 @@
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.005218712446496396</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01636032702377955</v>
+        <v>0.04306305453281217</v>
       </c>
       <c r="CF3">
-        <v>8.801670071912601E-05</v>
+        <v>0.0162553409586384</v>
       </c>
       <c r="CG3">
-        <v>0.03665466666975278</v>
+        <v>0.08809314719041836</v>
       </c>
       <c r="CH3">
-        <v>0.001600399035368854</v>
+        <v>0.0218624912697218</v>
       </c>
       <c r="CI3">
-        <v>0.03662478037162562</v>
+        <v>0.002328670251306592</v>
       </c>
       <c r="CJ3">
-        <v>0.003763959842076947</v>
+        <v>0.01018075091232091</v>
       </c>
       <c r="CK3">
-        <v>0.0008703704193703119</v>
+        <v>0.06286319454735352</v>
       </c>
       <c r="CL3">
-        <v>9.320649401764925E-07</v>
+        <v>0.06490278591111343</v>
       </c>
       <c r="CM3">
-        <v>0.005356054422942724</v>
+        <v>0.03394566448991684</v>
       </c>
       <c r="CN3">
-        <v>0.05051994703527186</v>
+        <v>0.003465138267702017</v>
       </c>
       <c r="CO3">
-        <v>0.0545134809281374</v>
+        <v>0.003566939317098275</v>
       </c>
       <c r="CP3">
-        <v>0.0009952505474309001</v>
+        <v>0.02411643269698947</v>
       </c>
       <c r="CQ3">
-        <v>0.0483220800907268</v>
+        <v>0.08926630674338196</v>
       </c>
       <c r="CR3">
-        <v>0.04498909312392817</v>
+        <v>0.007606412046372879</v>
       </c>
       <c r="CS3">
-        <v>0.05340342135457797</v>
+        <v>0.01157109132677554</v>
       </c>
       <c r="CT3">
-        <v>0.06518398161793248</v>
+        <v>0.02988231918709547</v>
       </c>
       <c r="CU3">
-        <v>0.005168568415485249</v>
+        <v>0.06094044411919017</v>
       </c>
       <c r="CV3">
-        <v>0.04395613293733622</v>
+        <v>0.02120971399467324</v>
       </c>
       <c r="CW3">
-        <v>0.08506069641216628</v>
+        <v>0.01541966538539002</v>
       </c>
       <c r="CX3">
-        <v>0.07040822424849007</v>
+        <v>0.04253721493800974</v>
       </c>
       <c r="CY3">
-        <v>0.07304314975215465</v>
+        <v>0.0779215792100396</v>
       </c>
       <c r="CZ3">
-        <v>0.06197172287954723</v>
+        <v>0.1386629973832055</v>
       </c>
       <c r="DA3">
-        <v>0.01163708399317587</v>
+        <v>0.01143221735975603</v>
       </c>
       <c r="DB3">
-        <v>0.006114893916434766</v>
+        <v>0.0256651952725632</v>
       </c>
       <c r="DC3">
-        <v>0.04229147110977451</v>
+        <v>0.007402683206966316</v>
       </c>
       <c r="DD3">
-        <v>0.07161283738107137</v>
+        <v>0.003457188643007902</v>
       </c>
       <c r="DE3">
-        <v>0.05691777885313264</v>
+        <v>0.003606448385101703</v>
       </c>
       <c r="DF3">
-        <v>0.02405742948813115</v>
+        <v>0.01633646525574373</v>
       </c>
       <c r="DG3">
-        <v>0.009924494569940307</v>
+        <v>0.02206615210196961</v>
       </c>
       <c r="DH3">
-        <v>0.008141812319165918</v>
+        <v>0.01707463144347802</v>
       </c>
       <c r="DI3">
-        <v>0.005228230028915846</v>
+        <v>0.02326067594929505</v>
+      </c>
+      <c r="DJ3">
+        <v>3.698770259250621E-05</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:113">
+    <row r="4" spans="1:115">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2067,105 +2088,111 @@
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.003065190558481804</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.02620425172474516</v>
+        <v>0.05138632999191355</v>
       </c>
       <c r="CF4">
-        <v>0.002259893174407563</v>
+        <v>0.003188148052001262</v>
       </c>
       <c r="CG4">
-        <v>0.04543301101874155</v>
+        <v>0.1009228056573458</v>
       </c>
       <c r="CH4">
-        <v>0.006704459329994264</v>
+        <v>0.03381256097628563</v>
       </c>
       <c r="CI4">
-        <v>0.04404881117824089</v>
+        <v>0.000242221744207668</v>
       </c>
       <c r="CJ4">
-        <v>0.006219736458569329</v>
+        <v>0.02509328037826713</v>
       </c>
       <c r="CK4">
-        <v>0.0001758282301392499</v>
+        <v>0.02765015984273454</v>
       </c>
       <c r="CL4">
-        <v>0.0002733920483015638</v>
+        <v>0.01931395418855187</v>
       </c>
       <c r="CM4">
-        <v>0.007386048506567098</v>
+        <v>0.02284411774166271</v>
       </c>
       <c r="CN4">
-        <v>0.07392283468021082</v>
+        <v>0.004858205980870928</v>
       </c>
       <c r="CO4">
-        <v>0.06448382109585431</v>
+        <v>0.01238280413304251</v>
       </c>
       <c r="CP4">
-        <v>0.001981969707807294</v>
+        <v>0.0549558134011126</v>
       </c>
       <c r="CQ4">
-        <v>0.05735819328894388</v>
+        <v>0.1321489384203263</v>
       </c>
       <c r="CR4">
-        <v>0.04779209010064053</v>
+        <v>0.002506507656658932</v>
       </c>
       <c r="CS4">
-        <v>0.0524080567809182</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.05088389752321985</v>
+        <v>0.073935829029184</v>
       </c>
       <c r="CU4">
-        <v>0.004228614703427359</v>
+        <v>0.08383538661009918</v>
       </c>
       <c r="CV4">
-        <v>0.03571727664002661</v>
+        <v>0.001164334405649334</v>
       </c>
       <c r="CW4">
-        <v>0.09374228211148146</v>
+        <v>0.04532570502235812</v>
       </c>
       <c r="CX4">
-        <v>0.07774053697040835</v>
+        <v>0.05875256343366749</v>
       </c>
       <c r="CY4">
-        <v>0.06003130310404684</v>
+        <v>0.06562469774753132</v>
       </c>
       <c r="CZ4">
-        <v>0.05087262672998748</v>
+        <v>0.07191611443840216</v>
       </c>
       <c r="DA4">
-        <v>0.01018590672739095</v>
+        <v>0.0002217934356483982</v>
       </c>
       <c r="DB4">
-        <v>0.005414879953949144</v>
+        <v>0.01454613429316568</v>
       </c>
       <c r="DC4">
-        <v>0.03831449560216111</v>
+        <v>0.002229586003824188</v>
       </c>
       <c r="DD4">
-        <v>0.05569663241217452</v>
+        <v>0.0008003827523607842</v>
       </c>
       <c r="DE4">
-        <v>0.03987831023936644</v>
+        <v>0.001603182758008158</v>
       </c>
       <c r="DF4">
-        <v>0.01947123800649619</v>
+        <v>0.02854331166698741</v>
       </c>
       <c r="DG4">
-        <v>0.01003978846827271</v>
+        <v>0.02409402487176469</v>
       </c>
       <c r="DH4">
-        <v>0.005541421865806401</v>
+        <v>0.02855603684165469</v>
       </c>
       <c r="DI4">
-        <v>0.002523201059221436</v>
+        <v>0.007333907511230928</v>
+      </c>
+      <c r="DJ4">
+        <v>0.0002111610134820196</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:113">
+    <row r="5" spans="1:115">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2300,100 +2327,100 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.03283856945757407</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>0.1349324460842224</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.01522806266721993</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.05158019109917932</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>0.004502634342039076</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>0.006268198650058053</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.007199183965444786</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>0.07483095129432822</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.1579061565989109</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.01612998031364663</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.0139051282768862</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.03383329345568396</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>0.008357789273753835</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.0144867603614744</v>
       </c>
       <c r="BH5">
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.007100760286020038</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.04485555763707295</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>0.05220500281559766</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.006345065405252577</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.03178874314801874</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.001727690327409555</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.04622360702504052</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.07948799120173719</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.003941726879047296</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.01163366633925047</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>6.65411019407236E-05</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.01084290828685425</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>1.783084929938407E-05</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.02307652078492276</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>0.000296154235626193</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>0.08093478042306791</v>
       </c>
       <c r="BY5">
-        <v>0</v>
+        <v>0.02745610741341968</v>
       </c>
       <c r="BZ5">
         <v>0</v>
@@ -2408,105 +2435,111 @@
         <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001135135101339802</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001276866205022313</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.01094496121920217</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.02314408062390121</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.02675256194142021</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.02258464575622414</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.04378183460778517</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.001256144486755334</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.005404636025187896</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.002677385342358941</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.02375693853439631</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.08198507932745577</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.02935075999172057</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.02032670444869394</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.0789460396781811</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.05829972097052132</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.07424193413748176</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.04774542414476513</v>
+        <v>0</v>
       </c>
       <c r="CV5">
         <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.04901922780301029</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.08722032376445291</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.06590943736727869</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.04797337915740056</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.03348752955152594</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.002536057509708377</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.008352724497408082</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.03719014785534746</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.04889574359687101</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.03218728675529227</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.01640844780801889</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.009200335440723136</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.00800850635054917</v>
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:113">
+    <row r="6" spans="1:115">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2515,25 +2548,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1887179703246573</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2247456960542335</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2204794823320737</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1640111973358198</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1294208163261591</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.05964331292396576</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.005951580954039022</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2554,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0008400370460823687</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.006189906702969422</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -2755,94 +2788,100 @@
         <v>0</v>
       </c>
       <c r="CF6">
-        <v>0</v>
+        <v>0.03045305196008137</v>
       </c>
       <c r="CG6">
-        <v>0</v>
+        <v>0.0774121319897316</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>0.04629590736063375</v>
       </c>
       <c r="CI6">
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0</v>
+        <v>0.006690530334270034</v>
       </c>
       <c r="CK6">
-        <v>0</v>
+        <v>0.0597960602876986</v>
       </c>
       <c r="CL6">
-        <v>0</v>
+        <v>0.01502385883375974</v>
       </c>
       <c r="CM6">
-        <v>0</v>
+        <v>0.06784719839983117</v>
       </c>
       <c r="CN6">
-        <v>0</v>
+        <v>0.004378495541809318</v>
       </c>
       <c r="CO6">
-        <v>0</v>
+        <v>0.003500419447440488</v>
       </c>
       <c r="CP6">
-        <v>0</v>
+        <v>0.004970393504320659</v>
       </c>
       <c r="CQ6">
-        <v>0</v>
+        <v>0.1315598881379915</v>
       </c>
       <c r="CR6">
-        <v>0</v>
+        <v>0.02174817450170529</v>
       </c>
       <c r="CS6">
-        <v>0</v>
+        <v>3.421886887812943E-06</v>
       </c>
       <c r="CT6">
-        <v>0</v>
+        <v>0.0258472409475571</v>
       </c>
       <c r="CU6">
-        <v>0</v>
+        <v>0.05928461130073327</v>
       </c>
       <c r="CV6">
-        <v>0</v>
+        <v>0.0568492944354298</v>
       </c>
       <c r="CW6">
-        <v>0</v>
+        <v>0.006172956564822578</v>
       </c>
       <c r="CX6">
-        <v>0</v>
+        <v>0.07922058061533832</v>
       </c>
       <c r="CY6">
-        <v>0</v>
+        <v>0.05806431404409373</v>
       </c>
       <c r="CZ6">
-        <v>0</v>
+        <v>0.07981175625449377</v>
       </c>
       <c r="DA6">
-        <v>0</v>
+        <v>0.02832443873097199</v>
       </c>
       <c r="DB6">
-        <v>0</v>
+        <v>0.04603269984567683</v>
       </c>
       <c r="DC6">
-        <v>0</v>
+        <v>0.004533699054748527</v>
       </c>
       <c r="DD6">
         <v>0</v>
       </c>
       <c r="DE6">
-        <v>0</v>
+        <v>0.001442265331971184</v>
       </c>
       <c r="DF6">
-        <v>0</v>
+        <v>0.002772265264740894</v>
       </c>
       <c r="DG6">
-        <v>0</v>
+        <v>0.02356740714957999</v>
       </c>
       <c r="DH6">
-        <v>0</v>
+        <v>0.01254197978506183</v>
       </c>
       <c r="DI6">
-        <v>0</v>
+        <v>0.04098156151820267</v>
+      </c>
+      <c r="DJ6">
+        <v>0.0001423757221986224</v>
+      </c>
+      <c r="DK6">
+        <v>0.004731021248217317</v>
       </c>
     </row>
   </sheetData>
@@ -2852,15 +2891,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DI6"/>
+  <dimension ref="A1:DK6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:113">
+    <row r="1" spans="1:115">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3198,10 +3237,16 @@
       <c r="DI1" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="2" spans="1:113">
+    <row r="2" spans="1:115">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3210,1698 +3255,1728 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0697425518026638</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.07244211754212934</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1715076283278211</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1925886538573869</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2016923158687854</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2254967270365666</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2933438502674739</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3527468840985188</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3527468840985188</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3595936839482661</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3601534531050926</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.4408154320336808</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.5008884308378334</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.5044256623270087</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.5209518584168588</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.6109127836402409</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.6656456721845786</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.6663902770245909</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.7282158819397326</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.7586522226388095</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.7903337696583563</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.8527760371576169</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.8555793647823168</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.8561459904058761</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.865025618995478</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.8763009904709694</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.8838206613514383</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.9522482176439618</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.9541198789148945</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.9943210615845351</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.9947955382759885</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.002004505793264738</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0.01760637165880455</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0.01897034147004155</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0.04920966839119</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0.05404002248566207</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0.07954954814216225</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>0.08011477477273649</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0.08169997363092445</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0.08179273550991162</v>
+        <v>1</v>
       </c>
       <c r="BC2">
-        <v>0.08454291475726479</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0.1447619600897929</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>0.20434446416542</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0.207409370629272</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>0.2716854627508711</v>
+        <v>1</v>
       </c>
       <c r="BH2">
-        <v>0.3175770171933655</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>0.365822723991752</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0.418247705226212</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0.4215827665966235</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0.4637658560683299</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0.5546909487201546</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0.6254651730309535</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0.6951579700859634</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0.7459563114134247</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.7533987716385826</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0.7636757405496887</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0.8147643394231476</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0.8900357843044545</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0.9432853675379883</v>
+        <v>1</v>
       </c>
       <c r="BV2">
-        <v>0.9729517681378272</v>
+        <v>1</v>
       </c>
       <c r="BW2">
-        <v>0.9881501797766798</v>
+        <v>1</v>
       </c>
       <c r="BX2">
-        <v>0.9971425276684046</v>
+        <v>1</v>
       </c>
       <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:115">
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0.04306305453281217</v>
+      </c>
+      <c r="CF3">
+        <v>0.05931839549145056</v>
+      </c>
+      <c r="CG3">
+        <v>0.1474115426818689</v>
+      </c>
+      <c r="CH3">
+        <v>0.1692740339515907</v>
+      </c>
+      <c r="CI3">
+        <v>0.1716027042028973</v>
+      </c>
+      <c r="CJ3">
+        <v>0.1817834551152182</v>
+      </c>
+      <c r="CK3">
+        <v>0.2446466496625718</v>
+      </c>
+      <c r="CL3">
+        <v>0.3095494355736852</v>
+      </c>
+      <c r="CM3">
+        <v>0.343495100063602</v>
+      </c>
+      <c r="CN3">
+        <v>0.346960238331304</v>
+      </c>
+      <c r="CO3">
+        <v>0.3505271776484023</v>
+      </c>
+      <c r="CP3">
+        <v>0.3746436103453918</v>
+      </c>
+      <c r="CQ3">
+        <v>0.4639099170887737</v>
+      </c>
+      <c r="CR3">
+        <v>0.4715163291351466</v>
+      </c>
+      <c r="CS3">
+        <v>0.4830874204619221</v>
+      </c>
+      <c r="CT3">
+        <v>0.5129697396490176</v>
+      </c>
+      <c r="CU3">
+        <v>0.5739101837682078</v>
+      </c>
+      <c r="CV3">
+        <v>0.595119897762881</v>
+      </c>
+      <c r="CW3">
+        <v>0.610539563148271</v>
+      </c>
+      <c r="CX3">
+        <v>0.6530767780862807</v>
+      </c>
+      <c r="CY3">
+        <v>0.7309983572963203</v>
+      </c>
+      <c r="CZ3">
+        <v>0.8696613546795258</v>
+      </c>
+      <c r="DA3">
+        <v>0.8810935720392818</v>
+      </c>
+      <c r="DB3">
+        <v>0.906758767311845</v>
+      </c>
+      <c r="DC3">
+        <v>0.9141614505188114</v>
+      </c>
+      <c r="DD3">
+        <v>0.9176186391618193</v>
+      </c>
+      <c r="DE3">
+        <v>0.921225087546921</v>
+      </c>
+      <c r="DF3">
+        <v>0.9375615528026647</v>
+      </c>
+      <c r="DG3">
+        <v>0.9596277049046343</v>
+      </c>
+      <c r="DH3">
+        <v>0.9767023363481123</v>
+      </c>
+      <c r="DI3">
+        <v>0.9999630122974074</v>
+      </c>
+      <c r="DJ3">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BZ2">
+      <c r="DK3">
         <v>0.9999999999999999</v>
       </c>
-      <c r="CA2">
+    </row>
+    <row r="4" spans="1:115">
+      <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0.05138632999191355</v>
+      </c>
+      <c r="CF4">
+        <v>0.05457447804391481</v>
+      </c>
+      <c r="CG4">
+        <v>0.1554972837012606</v>
+      </c>
+      <c r="CH4">
+        <v>0.1893098446775463</v>
+      </c>
+      <c r="CI4">
+        <v>0.1895520664217539</v>
+      </c>
+      <c r="CJ4">
+        <v>0.2146453468000211</v>
+      </c>
+      <c r="CK4">
+        <v>0.2422955066427556</v>
+      </c>
+      <c r="CL4">
+        <v>0.2616094608313075</v>
+      </c>
+      <c r="CM4">
+        <v>0.2844535785729702</v>
+      </c>
+      <c r="CN4">
+        <v>0.2893117845538412</v>
+      </c>
+      <c r="CO4">
+        <v>0.3016945886868836</v>
+      </c>
+      <c r="CP4">
+        <v>0.3566504020879963</v>
+      </c>
+      <c r="CQ4">
+        <v>0.4887993405083225</v>
+      </c>
+      <c r="CR4">
+        <v>0.4913058481649815</v>
+      </c>
+      <c r="CS4">
+        <v>0.4913058481649815</v>
+      </c>
+      <c r="CT4">
+        <v>0.5652416771941655</v>
+      </c>
+      <c r="CU4">
+        <v>0.6490770638042647</v>
+      </c>
+      <c r="CV4">
+        <v>0.650241398209914</v>
+      </c>
+      <c r="CW4">
+        <v>0.6955671032322721</v>
+      </c>
+      <c r="CX4">
+        <v>0.7543196666659396</v>
+      </c>
+      <c r="CY4">
+        <v>0.819944364413471</v>
+      </c>
+      <c r="CZ4">
+        <v>0.8918604788518731</v>
+      </c>
+      <c r="DA4">
+        <v>0.8920822722875216</v>
+      </c>
+      <c r="DB4">
+        <v>0.9066284065806872</v>
+      </c>
+      <c r="DC4">
+        <v>0.9088579925845114</v>
+      </c>
+      <c r="DD4">
+        <v>0.9096583753368722</v>
+      </c>
+      <c r="DE4">
+        <v>0.9112615580948804</v>
+      </c>
+      <c r="DF4">
+        <v>0.9398048697618678</v>
+      </c>
+      <c r="DG4">
+        <v>0.9638988946336325</v>
+      </c>
+      <c r="DH4">
+        <v>0.9924549314752872</v>
+      </c>
+      <c r="DI4">
+        <v>0.9997888389865182</v>
+      </c>
+      <c r="DJ4">
+        <v>1</v>
+      </c>
+      <c r="DK4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:115">
+      <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0.03283856945757407</v>
+      </c>
+      <c r="AU5">
+        <v>0.1677710155417964</v>
+      </c>
+      <c r="AV5">
+        <v>0.1829990782090164</v>
+      </c>
+      <c r="AW5">
+        <v>0.2345792693081957</v>
+      </c>
+      <c r="AX5">
+        <v>0.2390819036502348</v>
+      </c>
+      <c r="AY5">
+        <v>0.2453501023002928</v>
+      </c>
+      <c r="AZ5">
+        <v>0.2525492862657376</v>
+      </c>
+      <c r="BA5">
+        <v>0.3273802375600658</v>
+      </c>
+      <c r="BB5">
+        <v>0.4852863941589767</v>
+      </c>
+      <c r="BC5">
+        <v>0.5014163744726233</v>
+      </c>
+      <c r="BD5">
+        <v>0.5153215027495095</v>
+      </c>
+      <c r="BE5">
+        <v>0.5491547962051935</v>
+      </c>
+      <c r="BF5">
+        <v>0.5575125854789473</v>
+      </c>
+      <c r="BG5">
+        <v>0.5719993458404218</v>
+      </c>
+      <c r="BH5">
+        <v>0.5719993458404218</v>
+      </c>
+      <c r="BI5">
+        <v>0.5791001061264418</v>
+      </c>
+      <c r="BJ5">
+        <v>0.6239556637635147</v>
+      </c>
+      <c r="BK5">
+        <v>0.6761606665791124</v>
+      </c>
+      <c r="BL5">
+        <v>0.682505731984365</v>
+      </c>
+      <c r="BM5">
+        <v>0.7142944751323838</v>
+      </c>
+      <c r="BN5">
+        <v>0.7160221654597934</v>
+      </c>
+      <c r="BO5">
+        <v>0.7622457724848338</v>
+      </c>
+      <c r="BP5">
+        <v>0.841733763686571</v>
+      </c>
+      <c r="BQ5">
+        <v>0.8456754905656183</v>
+      </c>
+      <c r="BR5">
+        <v>0.8573091569048688</v>
+      </c>
+      <c r="BS5">
+        <v>0.8573756980068095</v>
+      </c>
+      <c r="BT5">
+        <v>0.8682186062936638</v>
+      </c>
+      <c r="BU5">
+        <v>0.8682364371429632</v>
+      </c>
+      <c r="BV5">
+        <v>0.8913129579278859</v>
+      </c>
+      <c r="BW5">
+        <v>0.8916091121635121</v>
+      </c>
+      <c r="BX5">
+        <v>0.97254389258658</v>
+      </c>
+      <c r="BY5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BZ5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CA5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CB5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CC5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CD5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CE5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CF5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CG5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CH5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CI5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CJ5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CK5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CL5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CM5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CN5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CO5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CP5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CQ5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CR5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CS5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CT5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CU5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CV5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CW5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CX5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CY5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CZ5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DA5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DB5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DC5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DD5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DE5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DF5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DG5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DH5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DI5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DK5">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:115">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0.03045305196008137</v>
+      </c>
+      <c r="CG6">
+        <v>0.107865183949813</v>
+      </c>
+      <c r="CH6">
+        <v>0.1541610913104467</v>
+      </c>
+      <c r="CI6">
+        <v>0.1541610913104467</v>
+      </c>
+      <c r="CJ6">
+        <v>0.1608516216447168</v>
+      </c>
+      <c r="CK6">
+        <v>0.2206476819324154</v>
+      </c>
+      <c r="CL6">
+        <v>0.2356715407661751</v>
+      </c>
+      <c r="CM6">
+        <v>0.3035187391660062</v>
+      </c>
+      <c r="CN6">
+        <v>0.3078972347078155</v>
+      </c>
+      <c r="CO6">
+        <v>0.3113976541552561</v>
+      </c>
+      <c r="CP6">
+        <v>0.3163680476595767</v>
+      </c>
+      <c r="CQ6">
+        <v>0.4479279357975682</v>
+      </c>
+      <c r="CR6">
+        <v>0.4696761102992735</v>
+      </c>
+      <c r="CS6">
+        <v>0.4696795321861613</v>
+      </c>
+      <c r="CT6">
+        <v>0.4955267731337184</v>
+      </c>
+      <c r="CU6">
+        <v>0.5548113844344517</v>
+      </c>
+      <c r="CV6">
+        <v>0.6116606788698815</v>
+      </c>
+      <c r="CW6">
+        <v>0.617833635434704</v>
+      </c>
+      <c r="CX6">
+        <v>0.6970542160500424</v>
+      </c>
+      <c r="CY6">
+        <v>0.7551185300941361</v>
+      </c>
+      <c r="CZ6">
+        <v>0.8349302863486299</v>
+      </c>
+      <c r="DA6">
+        <v>0.8632547250796019</v>
+      </c>
+      <c r="DB6">
+        <v>0.9092874249252787</v>
+      </c>
+      <c r="DC6">
+        <v>0.9138211239800272</v>
+      </c>
+      <c r="DD6">
+        <v>0.9138211239800272</v>
+      </c>
+      <c r="DE6">
+        <v>0.9152633893119985</v>
+      </c>
+      <c r="DF6">
+        <v>0.9180356545767394</v>
+      </c>
+      <c r="DG6">
+        <v>0.9416030617263194</v>
+      </c>
+      <c r="DH6">
+        <v>0.9541450415113812</v>
+      </c>
+      <c r="DI6">
+        <v>0.9951266030295839</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9952689787517826</v>
+      </c>
+      <c r="DK6">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="CB2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CC2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CD2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CE2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CF2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CG2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CH2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CI2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CJ2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CK2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CL2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CM2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CN2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CO2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CP2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CQ2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CR2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CS2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CT2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CU2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CV2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CW2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CX2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CY2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CZ2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DA2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DB2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DC2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DD2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DE2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DF2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DG2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DH2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DI2">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:113">
-      <c r="A3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0.005218712446496396</v>
-      </c>
-      <c r="CE3">
-        <v>0.02157903947027595</v>
-      </c>
-      <c r="CF3">
-        <v>0.02166705617099507</v>
-      </c>
-      <c r="CG3">
-        <v>0.05832172284074785</v>
-      </c>
-      <c r="CH3">
-        <v>0.05992212187611671</v>
-      </c>
-      <c r="CI3">
-        <v>0.09654690224774233</v>
-      </c>
-      <c r="CJ3">
-        <v>0.1003108620898193</v>
-      </c>
-      <c r="CK3">
-        <v>0.1011812325091896</v>
-      </c>
-      <c r="CL3">
-        <v>0.1011821645741298</v>
-      </c>
-      <c r="CM3">
-        <v>0.1065382189970725</v>
-      </c>
-      <c r="CN3">
-        <v>0.1570581660323443</v>
-      </c>
-      <c r="CO3">
-        <v>0.2115716469604818</v>
-      </c>
-      <c r="CP3">
-        <v>0.2125668975079127</v>
-      </c>
-      <c r="CQ3">
-        <v>0.2608889775986394</v>
-      </c>
-      <c r="CR3">
-        <v>0.3058780707225676</v>
-      </c>
-      <c r="CS3">
-        <v>0.3592814920771456</v>
-      </c>
-      <c r="CT3">
-        <v>0.4244654736950781</v>
-      </c>
-      <c r="CU3">
-        <v>0.4296340421105633</v>
-      </c>
-      <c r="CV3">
-        <v>0.4735901750478996</v>
-      </c>
-      <c r="CW3">
-        <v>0.5586508714600659</v>
-      </c>
-      <c r="CX3">
-        <v>0.6290590957085559</v>
-      </c>
-      <c r="CY3">
-        <v>0.7021022454607105</v>
-      </c>
-      <c r="CZ3">
-        <v>0.7640739683402578</v>
-      </c>
-      <c r="DA3">
-        <v>0.7757110523334336</v>
-      </c>
-      <c r="DB3">
-        <v>0.7818259462498683</v>
-      </c>
-      <c r="DC3">
-        <v>0.8241174173596428</v>
-      </c>
-      <c r="DD3">
-        <v>0.8957302547407142</v>
-      </c>
-      <c r="DE3">
-        <v>0.9526480335938469</v>
-      </c>
-      <c r="DF3">
-        <v>0.976705463081978</v>
-      </c>
-      <c r="DG3">
-        <v>0.9866299576519183</v>
-      </c>
-      <c r="DH3">
-        <v>0.9947717699710842</v>
-      </c>
-      <c r="DI3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:113">
-      <c r="A4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0.003065190558481804</v>
-      </c>
-      <c r="CE4">
-        <v>0.02926944228322697</v>
-      </c>
-      <c r="CF4">
-        <v>0.03152933545763453</v>
-      </c>
-      <c r="CG4">
-        <v>0.07696234647637608</v>
-      </c>
-      <c r="CH4">
-        <v>0.08366680580637034</v>
-      </c>
-      <c r="CI4">
-        <v>0.1277156169846112</v>
-      </c>
-      <c r="CJ4">
-        <v>0.1339353534431806</v>
-      </c>
-      <c r="CK4">
-        <v>0.1341111816733198</v>
-      </c>
-      <c r="CL4">
-        <v>0.1343845737216214</v>
-      </c>
-      <c r="CM4">
-        <v>0.1417706222281885</v>
-      </c>
-      <c r="CN4">
-        <v>0.2156934569083993</v>
-      </c>
-      <c r="CO4">
-        <v>0.2801772780042536</v>
-      </c>
-      <c r="CP4">
-        <v>0.2821592477120609</v>
-      </c>
-      <c r="CQ4">
-        <v>0.3395174410010048</v>
-      </c>
-      <c r="CR4">
-        <v>0.3873095311016453</v>
-      </c>
-      <c r="CS4">
-        <v>0.4397175878825635</v>
-      </c>
-      <c r="CT4">
-        <v>0.4906014854057834</v>
-      </c>
-      <c r="CU4">
-        <v>0.4948301001092107</v>
-      </c>
-      <c r="CV4">
-        <v>0.5305473767492374</v>
-      </c>
-      <c r="CW4">
-        <v>0.6242896588607189</v>
-      </c>
-      <c r="CX4">
-        <v>0.7020301958311272</v>
-      </c>
-      <c r="CY4">
-        <v>0.7620614989351741</v>
-      </c>
-      <c r="CZ4">
-        <v>0.8129341256651615</v>
-      </c>
-      <c r="DA4">
-        <v>0.8231200323925525</v>
-      </c>
-      <c r="DB4">
-        <v>0.8285349123465017</v>
-      </c>
-      <c r="DC4">
-        <v>0.8668494079486628</v>
-      </c>
-      <c r="DD4">
-        <v>0.9225460403608373</v>
-      </c>
-      <c r="DE4">
-        <v>0.9624243506002037</v>
-      </c>
-      <c r="DF4">
-        <v>0.9818955886066999</v>
-      </c>
-      <c r="DG4">
-        <v>0.9919353770749726</v>
-      </c>
-      <c r="DH4">
-        <v>0.997476798940779</v>
-      </c>
-      <c r="DI4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:113">
-      <c r="A5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5">
-        <v>0</v>
-      </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5">
-        <v>0</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
-        <v>0.001135135101339802</v>
-      </c>
-      <c r="CE5">
-        <v>0.002412001306362115</v>
-      </c>
-      <c r="CF5">
-        <v>0.01335696252556428</v>
-      </c>
-      <c r="CG5">
-        <v>0.03650104314946549</v>
-      </c>
-      <c r="CH5">
-        <v>0.06325360509088571</v>
-      </c>
-      <c r="CI5">
-        <v>0.08583825084710985</v>
-      </c>
-      <c r="CJ5">
-        <v>0.129620085454895</v>
-      </c>
-      <c r="CK5">
-        <v>0.1308762299416504</v>
-      </c>
-      <c r="CL5">
-        <v>0.1362808659668382</v>
-      </c>
-      <c r="CM5">
-        <v>0.1389582513091972</v>
-      </c>
-      <c r="CN5">
-        <v>0.1627151898435935</v>
-      </c>
-      <c r="CO5">
-        <v>0.2447002691710493</v>
-      </c>
-      <c r="CP5">
-        <v>0.2740510291627699</v>
-      </c>
-      <c r="CQ5">
-        <v>0.2943777336114638</v>
-      </c>
-      <c r="CR5">
-        <v>0.3733237732896449</v>
-      </c>
-      <c r="CS5">
-        <v>0.4316234942601662</v>
-      </c>
-      <c r="CT5">
-        <v>0.505865428397648</v>
-      </c>
-      <c r="CU5">
-        <v>0.5536108525424132</v>
-      </c>
-      <c r="CV5">
-        <v>0.5536108525424132</v>
-      </c>
-      <c r="CW5">
-        <v>0.6026300803454234</v>
-      </c>
-      <c r="CX5">
-        <v>0.6898504041098763</v>
-      </c>
-      <c r="CY5">
-        <v>0.755759841477155</v>
-      </c>
-      <c r="CZ5">
-        <v>0.8037332206345555</v>
-      </c>
-      <c r="DA5">
-        <v>0.8372207501860814</v>
-      </c>
-      <c r="DB5">
-        <v>0.8397568076957899</v>
-      </c>
-      <c r="DC5">
-        <v>0.848109532193198</v>
-      </c>
-      <c r="DD5">
-        <v>0.8852996800485454</v>
-      </c>
-      <c r="DE5">
-        <v>0.9341954236454164</v>
-      </c>
-      <c r="DF5">
-        <v>0.9663827104007087</v>
-      </c>
-      <c r="DG5">
-        <v>0.9827911582087275</v>
-      </c>
-      <c r="DH5">
-        <v>0.9919914936494507</v>
-      </c>
-      <c r="DI5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:113">
-      <c r="A6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.1887179703246573</v>
-      </c>
-      <c r="E6">
-        <v>0.4134636663788909</v>
-      </c>
-      <c r="F6">
-        <v>0.6339431487109646</v>
-      </c>
-      <c r="G6">
-        <v>0.7979543460467844</v>
-      </c>
-      <c r="H6">
-        <v>0.9273751623729435</v>
-      </c>
-      <c r="I6">
-        <v>0.9870184752969092</v>
-      </c>
-      <c r="J6">
-        <v>0.9929700562509483</v>
-      </c>
-      <c r="K6">
-        <v>0.9929700562509483</v>
-      </c>
-      <c r="L6">
-        <v>0.9929700562509483</v>
-      </c>
-      <c r="M6">
-        <v>0.9929700562509483</v>
-      </c>
-      <c r="N6">
-        <v>0.9929700562509483</v>
-      </c>
-      <c r="O6">
-        <v>0.9929700562509483</v>
-      </c>
-      <c r="P6">
-        <v>0.9929700562509483</v>
-      </c>
-      <c r="Q6">
-        <v>0.9938100932970306</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6">
-        <v>1</v>
-      </c>
-      <c r="AN6">
-        <v>1</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6">
-        <v>1</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AS6">
-        <v>1</v>
-      </c>
-      <c r="AT6">
-        <v>1</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
-      <c r="AY6">
-        <v>1</v>
-      </c>
-      <c r="AZ6">
-        <v>1</v>
-      </c>
-      <c r="BA6">
-        <v>1</v>
-      </c>
-      <c r="BB6">
-        <v>1</v>
-      </c>
-      <c r="BC6">
-        <v>1</v>
-      </c>
-      <c r="BD6">
-        <v>1</v>
-      </c>
-      <c r="BE6">
-        <v>1</v>
-      </c>
-      <c r="BF6">
-        <v>1</v>
-      </c>
-      <c r="BG6">
-        <v>1</v>
-      </c>
-      <c r="BH6">
-        <v>1</v>
-      </c>
-      <c r="BI6">
-        <v>1</v>
-      </c>
-      <c r="BJ6">
-        <v>1</v>
-      </c>
-      <c r="BK6">
-        <v>1</v>
-      </c>
-      <c r="BL6">
-        <v>1</v>
-      </c>
-      <c r="BM6">
-        <v>1</v>
-      </c>
-      <c r="BN6">
-        <v>1</v>
-      </c>
-      <c r="BO6">
-        <v>1</v>
-      </c>
-      <c r="BP6">
-        <v>1</v>
-      </c>
-      <c r="BQ6">
-        <v>1</v>
-      </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-      <c r="BS6">
-        <v>1</v>
-      </c>
-      <c r="BT6">
-        <v>1</v>
-      </c>
-      <c r="BU6">
-        <v>1</v>
-      </c>
-      <c r="BV6">
-        <v>1</v>
-      </c>
-      <c r="BW6">
-        <v>1</v>
-      </c>
-      <c r="BX6">
-        <v>1</v>
-      </c>
-      <c r="BY6">
-        <v>1</v>
-      </c>
-      <c r="BZ6">
-        <v>1</v>
-      </c>
-      <c r="CA6">
-        <v>1</v>
-      </c>
-      <c r="CB6">
-        <v>1</v>
-      </c>
-      <c r="CC6">
-        <v>1</v>
-      </c>
-      <c r="CD6">
-        <v>1</v>
-      </c>
-      <c r="CE6">
-        <v>1</v>
-      </c>
-      <c r="CF6">
-        <v>1</v>
-      </c>
-      <c r="CG6">
-        <v>1</v>
-      </c>
-      <c r="CH6">
-        <v>1</v>
-      </c>
-      <c r="CI6">
-        <v>1</v>
-      </c>
-      <c r="CJ6">
-        <v>1</v>
-      </c>
-      <c r="CK6">
-        <v>1</v>
-      </c>
-      <c r="CL6">
-        <v>1</v>
-      </c>
-      <c r="CM6">
-        <v>1</v>
-      </c>
-      <c r="CN6">
-        <v>1</v>
-      </c>
-      <c r="CO6">
-        <v>1</v>
-      </c>
-      <c r="CP6">
-        <v>1</v>
-      </c>
-      <c r="CQ6">
-        <v>1</v>
-      </c>
-      <c r="CR6">
-        <v>1</v>
-      </c>
-      <c r="CS6">
-        <v>1</v>
-      </c>
-      <c r="CT6">
-        <v>1</v>
-      </c>
-      <c r="CU6">
-        <v>1</v>
-      </c>
-      <c r="CV6">
-        <v>1</v>
-      </c>
-      <c r="CW6">
-        <v>1</v>
-      </c>
-      <c r="CX6">
-        <v>1</v>
-      </c>
-      <c r="CY6">
-        <v>1</v>
-      </c>
-      <c r="CZ6">
-        <v>1</v>
-      </c>
-      <c r="DA6">
-        <v>1</v>
-      </c>
-      <c r="DB6">
-        <v>1</v>
-      </c>
-      <c r="DC6">
-        <v>1</v>
-      </c>
-      <c r="DD6">
-        <v>1</v>
-      </c>
-      <c r="DE6">
-        <v>1</v>
-      </c>
-      <c r="DF6">
-        <v>1</v>
-      </c>
-      <c r="DG6">
-        <v>1</v>
-      </c>
-      <c r="DH6">
-        <v>1</v>
-      </c>
-      <c r="DI6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4919,302 +4994,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>0.01760637165880455</v>
+        <v>0.1715076283278211</v>
       </c>
       <c r="F2">
-        <v>0.5546909487201546</v>
+        <v>0.5008884308378334</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L2">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>0.02157903947027595</v>
+        <v>0.1474115426818689</v>
       </c>
       <c r="F3">
-        <v>0.5586508714600659</v>
+        <v>0.5129697396490176</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L3">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.02926944228322697</v>
+        <v>0.1554972837012606</v>
       </c>
       <c r="F4">
-        <v>0.5305473767492374</v>
+        <v>0.5652416771941655</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L4">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>0.01335696252556428</v>
+        <v>0.1677710155417964</v>
       </c>
       <c r="F5">
-        <v>0.505865428397648</v>
+        <v>0.5014163744726233</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L5">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.1887179703246573</v>
+        <v>0.107865183949813</v>
       </c>
       <c r="F6">
-        <v>0.6339431487109646</v>
+        <v>0.5548113844344517</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L6">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>136</v>
-      </c>
-      <c r="O6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5232,302 +5292,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>0.01760637165880455</v>
+        <v>0.1715076283278211</v>
       </c>
       <c r="F2">
-        <v>0.7459563114134247</v>
+        <v>0.7282158819397326</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L2">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>102</v>
       </c>
       <c r="E3">
-        <v>0.02157903947027595</v>
+        <v>0.1474115426818689</v>
       </c>
       <c r="F3">
-        <v>0.7021022454607105</v>
+        <v>0.7309983572963203</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L3">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>101</v>
       </c>
       <c r="E4">
-        <v>0.02926944228322697</v>
+        <v>0.1554972837012606</v>
       </c>
       <c r="F4">
-        <v>0.7020301958311272</v>
+        <v>0.7543196666659396</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L4">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E5">
-        <v>0.01335696252556428</v>
+        <v>0.1677710155417964</v>
       </c>
       <c r="F5">
-        <v>0.755759841477155</v>
+        <v>0.7142944751323838</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L5">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.1887179703246573</v>
+        <v>0.107865183949813</v>
       </c>
       <c r="F6">
-        <v>0.7979543460467844</v>
+        <v>0.7551185300941361</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L6">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>136</v>
-      </c>
-      <c r="O6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5545,302 +5590,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.01760637165880455</v>
+        <v>0.1715076283278211</v>
       </c>
       <c r="F2">
-        <v>0.8147643394231476</v>
+        <v>0.8527760371576169</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L2">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>0.02157903947027595</v>
+        <v>0.1474115426818689</v>
       </c>
       <c r="F3">
-        <v>0.8241174173596428</v>
+        <v>0.8696613546795258</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L3">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.02926944228322697</v>
+        <v>0.1554972837012606</v>
       </c>
       <c r="F4">
-        <v>0.8129341256651615</v>
+        <v>0.819944364413471</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L4">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>0.01335696252556428</v>
+        <v>0.1677710155417964</v>
       </c>
       <c r="F5">
-        <v>0.8037332206345555</v>
+        <v>0.841733763686571</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L5">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="E6">
-        <v>0.1887179703246573</v>
+        <v>0.107865183949813</v>
       </c>
       <c r="F6">
-        <v>0.9273751623729435</v>
+        <v>0.8349302863486299</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L6">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>136</v>
-      </c>
-      <c r="O6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5858,302 +5888,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.01760637165880455</v>
+        <v>0.1715076283278211</v>
       </c>
       <c r="F2">
-        <v>0.9432853675379883</v>
+        <v>0.9522482176439618</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L2">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>0.02157903947027595</v>
+        <v>0.1474115426818689</v>
       </c>
       <c r="F3">
-        <v>0.9526480335938469</v>
+        <v>0.906758767311845</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L3">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>0.02926944228322697</v>
+        <v>0.1554972837012606</v>
       </c>
       <c r="F4">
-        <v>0.9225460403608373</v>
+        <v>0.9066284065806872</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L4">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E5">
-        <v>0.01335696252556428</v>
+        <v>0.1677710155417964</v>
       </c>
       <c r="F5">
-        <v>0.9341954236454164</v>
+        <v>0.97254389258658</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L5">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>0.1887179703246573</v>
+        <v>0.107865183949813</v>
       </c>
       <c r="F6">
-        <v>0.9273751623729435</v>
+        <v>0.9092874249252787</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L6">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>136</v>
-      </c>
-      <c r="O6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
